--- a/excels/config/game/arms_combo.xlsx
+++ b/excels/config/game/arms_combo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>名字</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>lycan/hunter_of_kings_ability_icons/lycan_howl</t>
+  </si>
+  <si>
+    <t>Combo_3</t>
+  </si>
+  <si>
+    <t>四龙之力</t>
+  </si>
+  <si>
+    <t>降低每一条龙攻击间隔0.2，每一条龙造成伤害提高100%，每条龙继承其他三条龙的攻击特效。</t>
   </si>
 </sst>
 </file>
@@ -1419,16 +1428,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{60724D72-B337-4B06-9123-CF4AAA7238B5}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{87708337-B8BB-4FA5-AC50-9FDFD9E2484B}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2EF6ECAC-A588-40B5-8FCE-26BD314B579F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{80D4F346-8651-4982-B7F0-DBBA103938E9}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{7B7787CC-9508-4F06-8D53-179BDE5A4443}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{FB9C5775-034D-4475-B088-F54683EC42DD}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumn" dxfId="12"/>
@@ -1736,12 +1745,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD116"/>
+  <dimension ref="A1:AD117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2036,17 +2045,35 @@
       <c r="AC4" s="25"/>
       <c r="AD4" s="26"/>
     </row>
-    <row r="5" customFormat="1" ht="35" customHeight="1" spans="1:30">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+    <row r="5" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
+      <c r="A5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -5620,6 +5647,7 @@
       <c r="AC116" s="25"/>
       <c r="AD116" s="26"/>
     </row>
+    <row r="117" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:AD116">
     <extLst/>

--- a/excels/config/game/arms_combo.xlsx
+++ b/excels/config/game/arms_combo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>名字</t>
   </si>
@@ -171,7 +171,7 @@
     <t>认知失调</t>
   </si>
   <si>
-    <t>毎%interval%秒对自身%search_radius%范围内随机目标造成伤害</t>
+    <t>毎%interval%秒对自身%search_radius%范围内随机目标造成伤害，并变为反向操作。</t>
   </si>
   <si>
     <t>ogre_magi_dumb_luck</t>
@@ -202,6 +202,25 @@
   </si>
   <si>
     <t>降低每一条龙攻击间隔0.2，每一条龙造成伤害提高100%，每条龙继承其他三条龙的攻击特效。</t>
+  </si>
+  <si>
+    <t>Combo_4</t>
+  </si>
+  <si>
+    <t>吞一千根针</t>
+  </si>
+  <si>
+    <t>在15秒内，敌人每受到一次针刺伤害，下一次针刺伤害提高10%，上限200%</t>
+  </si>
+  <si>
+    <t>Combo_5</t>
+  </si>
+  <si>
+    <t>拉扯</t>
+  </si>
+  <si>
+    <t>无论是移动还是禁止，每秒损失5%最大生命值，回血速度翻倍。
+同时每秒获得10灵魂和10经验值。</t>
   </si>
 </sst>
 </file>
@@ -1428,16 +1447,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{87708337-B8BB-4FA5-AC50-9FDFD9E2484B}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4E0967A1-D205-4AF1-9D05-EE5E61662189}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{80D4F346-8651-4982-B7F0-DBBA103938E9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{43D7BE69-0FDB-4426-A051-6F3EB7543485}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{FB9C5775-034D-4475-B088-F54683EC42DD}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{5BD82E8E-CFC2-4F17-B5F6-257CF883D21D}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumn" dxfId="12"/>
@@ -1750,7 +1769,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2095,46 +2114,74 @@
       <c r="AC5" s="25"/>
       <c r="AD5" s="26"/>
     </row>
-    <row r="6" customFormat="1" ht="35" customHeight="1" spans="1:30">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="28"/>
+    <row r="6" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="24"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="26"/>
     </row>
-    <row r="7" customFormat="1" ht="35" customHeight="1" spans="1:30">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+    <row r="7" customFormat="1" ht="51.5" customHeight="1" spans="1:30">
+      <c r="A7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>

--- a/excels/config/game/arms_combo.xlsx
+++ b/excels/config/game/arms_combo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>名字</t>
   </si>
@@ -165,7 +165,7 @@
     <t>ManaRegen</t>
   </si>
   <si>
-    <t>Combo_1</t>
+    <t>combo_1</t>
   </si>
   <si>
     <t>认知失调</t>
@@ -183,7 +183,7 @@
     <t>search_radius 600</t>
   </si>
   <si>
-    <t>Combo_2</t>
+    <t>combo_2</t>
   </si>
   <si>
     <t>野狼disco</t>
@@ -195,7 +195,7 @@
     <t>lycan/hunter_of_kings_ability_icons/lycan_howl</t>
   </si>
   <si>
-    <t>Combo_3</t>
+    <t>combo_3</t>
   </si>
   <si>
     <t>吞一千根针</t>
@@ -204,7 +204,7 @@
     <t>在15秒内，敌人每受到一次针刺伤害，下一次针刺伤害提高10%，上限200%</t>
   </si>
   <si>
-    <t>Combo_4</t>
+    <t>combo_4</t>
   </si>
   <si>
     <t>拉扯</t>
@@ -214,7 +214,7 @@
 同时每秒获得10灵魂和10经验值。</t>
   </si>
   <si>
-    <t>Combo_5</t>
+    <t>combo_5</t>
   </si>
   <si>
     <t>四龙之力</t>
@@ -223,7 +223,7 @@
     <t>降低每一条龙攻击间隔0.2，每一条龙造成伤害提高100%，每条龙继承其他三条龙的攻击特效。</t>
   </si>
   <si>
-    <t>Combo_6</t>
+    <t>combo_6</t>
   </si>
   <si>
     <t>站在光明之巅</t>
@@ -233,7 +233,7 @@
 圣龙无法继承【四龙之力】的各项特性。</t>
   </si>
   <si>
-    <t>Combo_7</t>
+    <t>combo_7</t>
   </si>
   <si>
     <t>光明与黑暗</t>
@@ -246,7 +246,7 @@
 当该次伤害倍率为6倍时，则直接抹杀非boss级、精英级敌人。但抹杀一个敌人，损失最大生命值5%。</t>
   </si>
   <si>
-    <t>Combo_8</t>
+    <t>combo_8</t>
   </si>
   <si>
     <t>坠入黑暗之渊</t>
@@ -257,7 +257,7 @@
 </t>
   </si>
   <si>
-    <t>Combo_9</t>
+    <t>combo_9</t>
   </si>
   <si>
     <t>？？？</t>
@@ -266,6 +266,9 @@
     <t>所有龙消失，转而召唤3只圣龙与冥龙的结合体。
 圣龙攻击属性时，50%概率造成纯粹伤害，且回复该次伤害的10%生命值。
 冥龙攻击属性时，倍率上限提高到10倍，大于6倍即可抹杀，且抹杀敌人不再扣除生命值。</t>
+  </si>
+  <si>
+    <t>combo_10</t>
   </si>
   <si>
     <t>冰与火之歌</t>
@@ -277,6 +280,9 @@
 伤害系数变为：攻击力500%·火冰双元素伤害。
 【火焰喷吐】携带元素属性变为：火·火
 【冰霜吐雾】携带元素属性变为：冰·冰</t>
+  </si>
+  <si>
+    <t>combo_11</t>
   </si>
   <si>
     <t>【绝顶聪明】：额外提升500最大蓝量，回蓝速度+5/s。</t>
@@ -1506,16 +1512,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4E0967A1-D205-4AF1-9D05-EE5E61662189}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{20DE22A8-82A7-4A2A-879D-57FDD5CCD0E1}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{43D7BE69-0FDB-4426-A051-6F3EB7543485}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F255DD29-A185-4C89-9895-B4BAADC88B0A}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{5BD82E8E-CFC2-4F17-B5F6-257CF883D21D}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{7B59C079-C13B-4BF7-AF8C-D6EFD31D5E18}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumn" dxfId="12"/>
@@ -1825,10 +1831,10 @@
   <sheetPr/>
   <dimension ref="A1:AD116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2451,13 +2457,13 @@
     </row>
     <row r="12" ht="132" spans="1:30">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -2497,13 +2503,13 @@
     </row>
     <row r="13" ht="33" spans="1:30">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
